--- a/target/test-classes/Utilities/Data.xlsx
+++ b/target/test-classes/Utilities/Data.xlsx
@@ -16,31 +16,122 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>http://192.168.1.10/</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>Apprikart</t>
+  </si>
+  <si>
+    <t>January 2023</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>logs from</t>
+  </si>
+  <si>
+    <t>Video details:</t>
+  </si>
+  <si>
+    <t>Stream type</t>
+  </si>
+  <si>
+    <t>Main Stream</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Main Profile</t>
+  </si>
+  <si>
+    <t>Video Encoding</t>
+  </si>
+  <si>
+    <t>H.264</t>
+  </si>
+  <si>
+    <t>Resolution</t>
+  </si>
+  <si>
+    <t>1280x720</t>
+  </si>
+  <si>
+    <t>Framerate</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Bit Rate</t>
+  </si>
+  <si>
+    <t>4096</t>
+  </si>
+  <si>
+    <t>Rate Control</t>
+  </si>
+  <si>
+    <t>CBR</t>
+  </si>
+  <si>
+    <t>I-Frame Interval</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Watermark</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>http://106.51.90.72:1000/</t>
+  </si>
+  <si>
+    <t>CameraIP</t>
+  </si>
+  <si>
+    <t>Username</t>
   </si>
   <si>
     <t>admin</t>
   </si>
   <si>
-    <t>Apprikart</t>
-  </si>
-  <si>
-    <t>April 2023</t>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>abc4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -60,14 +151,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -360,40 +458,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:B4"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="23.5703125"/>
+    <col min="3" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="1" t="s">
-        <v>3</v>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="1">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <ignoredErrors>
+    <ignoredError sqref="B10" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/target/test-classes/Utilities/Data.xlsx
+++ b/target/test-classes/Utilities/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Apprikart</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Off</t>
   </si>
   <si>
-    <t>http://106.51.90.72:1000/</t>
-  </si>
-  <si>
     <t>CameraIP</t>
   </si>
   <si>
@@ -99,17 +96,28 @@
     <t>admin</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
     <t>abc4</t>
+  </si>
+  <si>
+    <t>http://192.168.1.10/</t>
+  </si>
+  <si>
+    <t>0E-CLISD2R12022</t>
+  </si>
+  <si>
+    <t>GC2_16NR_BVH18L0A0T0Q0_T00035792_V1.0.4.220317_R2</t>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
+  </si>
+  <si>
+    <t>192.168.1.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -460,31 +468,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.140625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="23.5703125"/>
-    <col min="3" max="16384" style="1" width="9.140625"/>
+    <col min="1" max="1" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -580,17 +588,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s" s="1">
-        <v>28</v>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="B10" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -599,24 +604,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="52.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>